--- a/file/setting.xlsx
+++ b/file/setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BESTTOUR\Desktop\python\py_ssh\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C78548-643E-46D5-869F-E8EF42B6E4F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23235A93-C9AD-43F8-A3E3-C76C45488DED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>host</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>port</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +74,10 @@
     <t>cd /var/www/html/site_2
 ls
 git pull dev master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,56 +458,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>1234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
         <v>8080</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>1234</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
         <v>8081</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
